--- a/db_impact_values.xlsx
+++ b/db_impact_values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\OneminPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57DBE7D-E288-4150-A349-A84979A8DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5BCD67-A901-4577-9925-BA198F428A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="720" windowWidth="23475" windowHeight="15480" xr2:uid="{7D39A446-9F31-40AA-80AA-8BA11F5A6419}"/>
+    <workbookView xWindow="3120" yWindow="720" windowWidth="23355" windowHeight="15480" xr2:uid="{7D39A446-9F31-40AA-80AA-8BA11F5A6419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,11 +791,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC9470D-CA0A-4F32-AEFA-01C5AC7C80F7}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
